--- a/results/new/tinybert/dilemma/confidence-reverse/0.1/percents/scores-10.xlsx
+++ b/results/new/tinybert/dilemma/confidence-reverse/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -49,196 +49,214 @@
     <t>scary</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
+    <t>devastating</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>horrific</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>brutal</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>passionate</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>meaningless</t>
-  </si>
-  <si>
-    <t>horrified</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>fails</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>ruining</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>silly</t>
-  </si>
-  <si>
-    <t>ironically</t>
-  </si>
-  <si>
-    <t>suicide</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>illegal</t>
   </si>
   <si>
     <t>0.95-positive</t>
   </si>
   <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>bei</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>stunning</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>enhanced</t>
-  </si>
-  <si>
-    <t>entirety</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>i</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -614,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS41"/>
+  <dimension ref="A1:BS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AK1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AT1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="BC1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="BL1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -845,13 +863,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.002321839952382081</v>
+        <v>0.003342363843257984</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -863,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>0.08404417234951529</v>
+        <v>0.1209300307704076</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -887,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.08184389709230713</v>
+        <v>0.003864216243463412</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -911,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC3">
-        <v>0.05260037772147698</v>
+        <v>0.05992314643535373</v>
       </c>
       <c r="AD3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -935,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.05674286142240826</v>
+        <v>0.0921719249028551</v>
       </c>
       <c r="AM3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AN3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -959,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AU3">
-        <v>0.0473876550357168</v>
+        <v>0.04913704612533484</v>
       </c>
       <c r="AV3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AW3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -983,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.04661216458774309</v>
+        <v>0.06923539405260851</v>
       </c>
       <c r="BE3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BF3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1007,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BM3">
-        <v>0.04524354451146528</v>
+        <v>0.04464104737351621</v>
       </c>
       <c r="BN3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BO3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1031,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1039,13 +1057,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.002058202726827539</v>
+        <v>0.00181836485265778</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1057,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>0.07471443923829306</v>
+        <v>0.0702573415247546</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1081,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T4">
-        <v>0.0676226523144297</v>
+        <v>0.001909801564198633</v>
       </c>
       <c r="U4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1105,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC4">
-        <v>0.05058879871279103</v>
+        <v>0.04561399147595164</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1129,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL4">
-        <v>0.04563367995754192</v>
+        <v>0.05052983775538532</v>
       </c>
       <c r="AM4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1153,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU4">
-        <v>0.04658927272798385</v>
+        <v>0.04125701359552957</v>
       </c>
       <c r="AV4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1177,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD4">
-        <v>0.03675900181346037</v>
+        <v>0.0419613211811558</v>
       </c>
       <c r="BE4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BF4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1201,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BM4">
-        <v>0.04494417739623556</v>
+        <v>0.03944088296916376</v>
       </c>
       <c r="BN4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1225,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1233,13 +1251,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.001460910613269436</v>
+        <v>0.001666485804253608</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1251,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0.06319050204028269</v>
+        <v>0.04558212415864519</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1275,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>0.05176563986314481</v>
+        <v>0.001880476293367699</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1299,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC5">
-        <v>0.04608101367940828</v>
+        <v>0.03925403034422854</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1323,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL5">
-        <v>0.03928459038917751</v>
+        <v>0.04702804072256721</v>
       </c>
       <c r="AM5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1347,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AU5">
-        <v>0.04433775255262951</v>
+        <v>0.03813521473190119</v>
       </c>
       <c r="AV5">
         <v>3</v>
@@ -1371,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD5">
-        <v>0.03424727917771827</v>
+        <v>0.03862271727580099</v>
       </c>
       <c r="BE5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1395,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="BM5">
-        <v>0.04368539223464813</v>
+        <v>0.0376688558577985</v>
       </c>
       <c r="BN5">
         <v>3</v>
@@ -1419,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1427,13 +1445,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001062043580747695</v>
+        <v>0.001647075185768688</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1445,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.05549074910781739</v>
+        <v>0.04456500530215737</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -1469,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.04110121933353007</v>
+        <v>0.001817601126395264</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1493,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6">
-        <v>0.0459237591462114</v>
+        <v>0.0380315436550317</v>
       </c>
       <c r="AD6">
         <v>3</v>
@@ -1517,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL6">
-        <v>0.03495818881989904</v>
+        <v>0.04534266874497174</v>
       </c>
       <c r="AM6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1541,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AU6">
-        <v>0.04324461879846244</v>
+        <v>0.03714706494410674</v>
       </c>
       <c r="AV6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1565,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD6">
-        <v>0.03247888156747664</v>
+        <v>0.03546246547419572</v>
       </c>
       <c r="BE6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BF6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1589,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BM6">
-        <v>0.04207794554884142</v>
+        <v>0.03713126060854924</v>
       </c>
       <c r="BN6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -1613,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1621,13 +1639,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001051286938352944</v>
+        <v>0.0008410697644191105</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1639,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>0.04406084922781221</v>
+        <v>0.03739943165562905</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1663,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.03961195700673298</v>
+        <v>0.0009920783779877717</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1687,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC7">
-        <v>0.04152295437102992</v>
+        <v>0.03718498024570405</v>
       </c>
       <c r="AD7">
         <v>2</v>
@@ -1711,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.03345938577399711</v>
+        <v>0.03196801807379115</v>
       </c>
       <c r="AM7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1735,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AU7">
-        <v>0.04154060274403476</v>
+        <v>0.0368764187299408</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1759,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD7">
-        <v>0.03097622791819297</v>
+        <v>0.03047822274888415</v>
       </c>
       <c r="BE7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1783,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="BM7">
-        <v>0.04187656463045403</v>
+        <v>0.03668538479042027</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1807,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1815,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0008515172770172376</v>
+        <v>0.0008360605725520344</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1833,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.0439354661371386</v>
+        <v>0.03704344005585831</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -1857,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.0342332072942132</v>
+        <v>0.0009682847166191604</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1881,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC8">
-        <v>0.04138031402676153</v>
+        <v>0.03675710990448516</v>
       </c>
       <c r="AD8">
         <v>2</v>
@@ -1905,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL8">
-        <v>0.03124934739417344</v>
+        <v>0.03106432851693486</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1929,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU8">
-        <v>0.04154060274403476</v>
+        <v>0.03670648634342061</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -1953,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD8">
-        <v>0.03004507118653204</v>
+        <v>0.02961664754750227</v>
       </c>
       <c r="BE8">
         <v>3</v>
@@ -1977,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BM8">
-        <v>0.04187656463045403</v>
+        <v>0.03639492494885856</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2001,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2009,7 +2027,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0008515172770172376</v>
+        <v>0.0008310513806849584</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2027,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0.03579687238731569</v>
+        <v>0.03671287642749976</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2051,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.0342332072942132</v>
+        <v>0.0009444910552505489</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -2075,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC9">
-        <v>0.04072381828862529</v>
+        <v>0.03635980173049618</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2099,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.03124934739417344</v>
+        <v>0.03016063896007857</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -2123,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU9">
-        <v>0.04154060274403476</v>
+        <v>0.03629737764278348</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2147,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD9">
-        <v>0.03004507118653204</v>
+        <v>0.02875507234612039</v>
       </c>
       <c r="BE9">
         <v>3</v>
@@ -2171,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BM9">
-        <v>0.04187656463045403</v>
+        <v>0.03627135724501478</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2195,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2203,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0008501726967178936</v>
+        <v>0.0008285467847514204</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2221,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.03579687238731569</v>
+        <v>0.03577204148524852</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2245,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.03404704950336356</v>
+        <v>0.0009325942245662432</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -2269,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC10">
-        <v>0.04072381828862529</v>
+        <v>0.03522900154298909</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2293,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL10">
-        <v>0.0310619970134357</v>
+        <v>0.02970879418165043</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -2317,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AT10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AU10">
-        <v>0.04154060274403476</v>
+        <v>0.03562392685547914</v>
       </c>
       <c r="AV10">
         <v>1</v>
@@ -2347,7 +2365,7 @@
         <v>16</v>
       </c>
       <c r="BD10">
-        <v>0.02985723948037158</v>
+        <v>0.02832428474542944</v>
       </c>
       <c r="BE10">
         <v>3</v>
@@ -2365,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="BL10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="BM10">
-        <v>0.04187656463045403</v>
+        <v>0.03605224472300051</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -2397,13 +2415,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0006356126520894044</v>
+        <v>0.000663869602121294</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2415,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.03579687238731569</v>
+        <v>0.02878446363860558</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2442,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T11">
-        <v>0.0266205640914978</v>
+        <v>0.0007418281277375213</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2463,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC11">
-        <v>0.04072381828862529</v>
+        <v>0.0345963733042709</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2490,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL11">
-        <v>0.02679110444549688</v>
+        <v>0.02653683479114335</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2511,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AT11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AU11">
-        <v>0.04150422743515207</v>
+        <v>0.03562392685547914</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2535,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD11">
-        <v>0.02685993398094561</v>
+        <v>0.02685356983960709</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2559,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BL11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BM11">
-        <v>0.04183989513428026</v>
+        <v>0.03605224472300051</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2583,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2591,7 +2609,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0006315789111913726</v>
+        <v>0.0006303327115767945</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2609,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.03579687238731569</v>
+        <v>0.02878446363860558</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2636,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T12">
-        <v>0.0260620907189489</v>
+        <v>0.0007269570893821392</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2657,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC12">
-        <v>0.04072381828862529</v>
+        <v>0.0345963733042709</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2684,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL12">
-        <v>0.02622905330328366</v>
+        <v>0.02597202881810817</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2705,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AT12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AU12">
-        <v>0.04150422743515207</v>
+        <v>0.03562392685547914</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2729,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD12">
-        <v>0.02629643886246423</v>
+        <v>0.02631508533874341</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2753,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BL12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BM12">
-        <v>0.04183989513428026</v>
+        <v>0.03605224472300051</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2777,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2785,7 +2803,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0006288897505926848</v>
+        <v>0.0006272019666598719</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2803,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>0.03576552661464728</v>
+        <v>0.02878446363860558</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2827,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T13">
-        <v>0.02568977513724963</v>
+        <v>0.0007210086740399865</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2851,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC13">
-        <v>0.0406881582025582</v>
+        <v>0.0345963733042709</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2875,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL13">
-        <v>0.02585435254180818</v>
+        <v>0.0257461064288941</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2899,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AT13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AU13">
-        <v>0.0413587261996213</v>
+        <v>0.03559245695543013</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2923,13 +2941,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD13">
-        <v>0.02592077545014331</v>
+        <v>0.02609969153839794</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -2947,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BL13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BM13">
-        <v>0.04169321714958514</v>
+        <v>0.03602039645027701</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2971,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2979,7 +2997,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0006275451702933409</v>
+        <v>0.0006259496686931028</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2997,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.03576552661464728</v>
+        <v>0.02875903566719338</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3024,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T14">
-        <v>0.02550361734639999</v>
+        <v>0.0007180344663689101</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -3045,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC14">
-        <v>0.0406881582025582</v>
+        <v>0.03456581113704097</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3072,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL14">
-        <v>0.02566700216107044</v>
+        <v>0.02563314523428706</v>
       </c>
       <c r="AM14">
         <v>2</v>
@@ -3093,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AT14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AU14">
-        <v>0.04132235089073862</v>
+        <v>0.03559245695543013</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3117,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD14">
-        <v>0.02573294374398285</v>
+        <v>0.02599199463822521</v>
       </c>
       <c r="BE14">
         <v>2</v>
@@ -3141,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="BL14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="BM14">
-        <v>0.04165654765341137</v>
+        <v>0.03602039645027701</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3165,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3173,7 +3191,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0006208222687966213</v>
+        <v>0.0006253235197097183</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3191,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15">
-        <v>0.03564014352397368</v>
+        <v>0.02875903566719338</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3215,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T15">
-        <v>0.02457282839215182</v>
+        <v>0.0007150602586978336</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -3239,13 +3257,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC15">
-        <v>0.04054551785828981</v>
+        <v>0.03456581113704097</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3263,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15">
-        <v>0.02473025025738173</v>
+        <v>0.02552018403968003</v>
       </c>
       <c r="AM15">
         <v>2</v>
@@ -3287,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AU15">
-        <v>0.04110409903744246</v>
+        <v>0.03559245695543013</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3311,19 +3329,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD15">
-        <v>0.02489570286540215</v>
+        <v>0.02588429773805247</v>
       </c>
       <c r="BE15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG15">
         <v>1</v>
@@ -3335,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BL15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="BM15">
-        <v>0.0414365306763687</v>
+        <v>0.03602039645027701</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3359,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3367,7 +3385,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0005919137923607272</v>
+        <v>0.0006246973707263339</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3385,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.03560879775130527</v>
+        <v>0.02875903566719338</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3409,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T16">
-        <v>0.02057043588888466</v>
+        <v>0.0006436792745919995</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -3433,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC16">
-        <v>0.04050985777222271</v>
+        <v>0.03456581113704097</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3457,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL16">
-        <v>0.02355063897161564</v>
+        <v>0.02280911536911116</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>1</v>
@@ -3481,19 +3499,19 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AU16">
-        <v>0.04110222454975616</v>
+        <v>0.03537216765508706</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -3505,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD16">
-        <v>0.02489570286540215</v>
+        <v>0.0234443107306755</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3535,7 +3553,7 @@
         <v>64</v>
       </c>
       <c r="BM16">
-        <v>0.04132652218784737</v>
+        <v>0.03579745854121252</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3553,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3561,7 +3579,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0004433376692832247</v>
+        <v>0.0006096697951251056</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3579,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17">
-        <v>0.03542072311529486</v>
+        <v>0.02858103986730801</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3603,19 +3621,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T17">
-        <v>0.02021794652930503</v>
+        <v>0.0006317824439076937</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -3627,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC17">
-        <v>0.04029589725582013</v>
+        <v>0.03435187596643153</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3651,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.02355063897161564</v>
+        <v>0.02235727059068302</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -3675,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AU17">
-        <v>0.04099497311079438</v>
+        <v>0.03530922785498904</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3699,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD17">
-        <v>0.02489570286540215</v>
+        <v>0.0234443107306755</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3729,7 +3747,7 @@
         <v>65</v>
       </c>
       <c r="BM17">
-        <v>0.04132652218784737</v>
+        <v>0.03573376199576553</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3747,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3755,13 +3773,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0004284477991073066</v>
+        <v>0.0006071651991915675</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3773,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>0.03532668579728965</v>
+        <v>0.02853018392448362</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3797,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T18">
-        <v>0.02021794652930503</v>
+        <v>0.0004975262928294241</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3824,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC18">
-        <v>0.04018891699761884</v>
+        <v>0.03429075163197168</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3845,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18">
-        <v>0.02355063897161564</v>
+        <v>0.02133157389770962</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3872,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU18">
-        <v>0.04099497311079438</v>
+        <v>0.03527775795494003</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3893,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD18">
-        <v>0.02480178701232192</v>
+        <v>0.02333661383050277</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3923,7 +3941,7 @@
         <v>66</v>
       </c>
       <c r="BM18">
-        <v>0.04114317470697848</v>
+        <v>0.03570191372304203</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3941,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3949,7 +3967,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0004284477991073066</v>
+        <v>0.0004208479567012475</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3970,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.03532668579728965</v>
+        <v>0.02850475595307143</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3991,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T19">
-        <v>0.02021794652930503</v>
+        <v>0.0004975262928294241</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4018,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC19">
-        <v>0.04018891699761884</v>
+        <v>0.03426018946474176</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4039,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL19">
-        <v>0.02345696378124677</v>
+        <v>0.02133157389770962</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4063,19 +4081,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AU19">
-        <v>0.0409567233142254</v>
+        <v>0.035183348254793</v>
       </c>
       <c r="AV19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4087,19 +4105,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BD19">
-        <v>0.02479378521318056</v>
+        <v>0.02333661383050277</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19">
         <v>1</v>
@@ -4111,19 +4129,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BM19">
-        <v>0.04092916887577532</v>
+        <v>0.03560636890487153</v>
       </c>
       <c r="BN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP19">
         <v>0</v>
@@ -4135,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4143,7 +4161,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0004284477991073066</v>
+        <v>0.0004208479567012475</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4164,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.03516995693394764</v>
+        <v>0.02842847203883484</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4185,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T20">
-        <v>0.02012486763388021</v>
+        <v>0.0004945520851583476</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4212,10 +4230,10 @@
         <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC20">
-        <v>0.04001061656728334</v>
+        <v>0.034168502963052</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4233,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL20">
-        <v>0.0233632885908779</v>
+        <v>0.02121861270310259</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4257,19 +4275,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AU20">
-        <v>0.04081309656638092</v>
+        <v>0.03513299134097012</v>
       </c>
       <c r="AV20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -4281,19 +4299,19 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BD20">
-        <v>0.0247078711592417</v>
+        <v>0.02329957213390682</v>
       </c>
       <c r="BE20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG20">
         <v>1</v>
@@ -4305,13 +4323,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BM20">
-        <v>0.04092315772993581</v>
+        <v>0.03547897581397754</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4329,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4337,7 +4355,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0004277755089576347</v>
+        <v>0.0004202218077178631</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4358,10 +4376,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>0.03498188229793722</v>
+        <v>0.02832676015318606</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4379,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T21">
-        <v>0.02003178873845539</v>
+        <v>0.0004945520851583476</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4403,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC21">
-        <v>0.03979665605088076</v>
+        <v>0.03404625429413231</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4427,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21">
-        <v>0.0233632885908779</v>
+        <v>0.02121861270310259</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4451,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AU21">
-        <v>0.04059484471308476</v>
+        <v>0.03505746865459696</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4475,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD21">
-        <v>0.0247078711592417</v>
+        <v>0.02322891693033003</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4502,10 +4520,10 @@
         <v>2</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BM21">
-        <v>0.04084981873758826</v>
+        <v>0.03538343099580704</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4523,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4531,7 +4549,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0004271032188079627</v>
+        <v>0.0004202218077178631</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4549,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K22">
-        <v>0.03491919075260042</v>
+        <v>0.02825047623894947</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4573,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T22">
-        <v>0.02003178873845539</v>
+        <v>0.0004915778774872712</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4600,10 +4618,10 @@
         <v>2</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC22">
-        <v>0.03972533587874657</v>
+        <v>0.03395456779244255</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4621,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL22">
-        <v>0.0233632885908779</v>
+        <v>0.02110565150849556</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4648,10 +4666,10 @@
         <v>2</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AU22">
-        <v>0.04052209409531938</v>
+        <v>0.03496305895444993</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4669,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD22">
-        <v>0.0247078711592417</v>
+        <v>0.02322891693033003</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4696,16 +4714,16 @@
         <v>2</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="BM22">
-        <v>0.0407824908910802</v>
+        <v>0.03535158272308354</v>
       </c>
       <c r="BN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP22">
         <v>0</v>
@@ -4717,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4725,7 +4743,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0004271032188079627</v>
+        <v>0.0004195956587344785</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4746,10 +4764,10 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K23">
-        <v>0.0346684245712532</v>
+        <v>0.02822504826753727</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4767,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T23">
-        <v>0.02003178873845539</v>
+        <v>0.0004915778774872712</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4794,10 +4812,10 @@
         <v>2</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC23">
-        <v>0.03944005519020979</v>
+        <v>0.03392400562521263</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4815,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AL23">
-        <v>0.0233632885908779</v>
+        <v>0.02110565150849556</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4842,10 +4860,10 @@
         <v>2</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AU23">
-        <v>0.04023109162425784</v>
+        <v>0.03493158905440092</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4863,13 +4881,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD23">
-        <v>0.0247078711592417</v>
+        <v>0.02322891693033003</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4890,10 +4908,10 @@
         <v>2</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BM23">
-        <v>0.04055646276819803</v>
+        <v>0.03535158272308354</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4911,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4919,7 +4937,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0004271032188079627</v>
+        <v>0.0004195956587344785</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4940,10 +4958,10 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>0.03404150911788514</v>
+        <v>0.02822504826753727</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4961,13 +4979,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T24">
-        <v>0.02003178873845539</v>
+        <v>0.0004915778774872712</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4988,10 +5006,10 @@
         <v>2</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC24">
-        <v>0.03872685346886784</v>
+        <v>0.03392400562521263</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5009,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL24">
-        <v>0.0233632885908779</v>
+        <v>0.02110565150849556</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5036,10 +5054,10 @@
         <v>2</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AU24">
-        <v>0.03950358544660399</v>
+        <v>0.03493158905440092</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5057,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD24">
-        <v>0.0247078711592417</v>
+        <v>0.02322891693033003</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5084,10 +5102,10 @@
         <v>2</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BM24">
-        <v>0.03982307284472249</v>
+        <v>0.03525603790491304</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5105,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5113,7 +5131,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0004271032188079627</v>
+        <v>0.0004195956587344785</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5134,10 +5152,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K25">
-        <v>0.03397881757254834</v>
+        <v>0.02814876435330068</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5155,13 +5173,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T25">
-        <v>0.02003178873845539</v>
+        <v>0.0004915778774872712</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5182,10 +5200,10 @@
         <v>2</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC25">
-        <v>0.03865553329673364</v>
+        <v>0.03383231912352287</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5203,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.02326961340050902</v>
+        <v>0.02110565150849556</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5227,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU25">
-        <v>0.0394308348288386</v>
+        <v>0.03483717935425389</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5251,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD25">
-        <v>0.02461395530616146</v>
+        <v>0.02301352312998456</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5275,19 +5293,19 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="BM25">
-        <v>0.03974973385237493</v>
+        <v>0.03509297115424533</v>
       </c>
       <c r="BN25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -5299,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5307,7 +5325,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0004271032188079627</v>
+        <v>0.0004195956587344785</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5328,10 +5346,10 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K26">
-        <v>0.03335190211918029</v>
+        <v>0.02761477695364457</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5349,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T26">
-        <v>0.01993870984303057</v>
+        <v>0.0004856294621451184</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5373,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26">
-        <v>0.0379423315753917</v>
+        <v>0.03319051361169452</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5397,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL26">
-        <v>0.02326961340050902</v>
+        <v>0.02087972911928148</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5421,13 +5439,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU26">
-        <v>0.03870332865118475</v>
+        <v>0.03417631145322468</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5445,19 +5463,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="BD26">
-        <v>0.02461395530616146</v>
+        <v>0.02286878453321588</v>
       </c>
       <c r="BE26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG26">
         <v>1</v>
@@ -5469,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BM26">
-        <v>0.03901634392889938</v>
+        <v>0.03458722417771957</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5493,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5501,7 +5519,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0004264309286582908</v>
+        <v>0.0004183433607677094</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5519,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K27">
-        <v>0.001410559770078115</v>
+        <v>0.02713164549681285</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5543,13 +5561,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1097</v>
+        <v>65</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T27">
-        <v>0.01993870984303057</v>
+        <v>0.0004796810468029655</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5567,13 +5585,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27">
-        <v>0.001604703873019382</v>
+        <v>0.03260983243432601</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5591,13 +5609,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>1097</v>
+        <v>65</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL27">
-        <v>0.02317593821014016</v>
+        <v>0.02065380673006741</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5615,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AU27">
-        <v>0.00163688889972116</v>
+        <v>0.0335783833522935</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5639,13 +5657,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>1097</v>
+        <v>65</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BD27">
-        <v>0.02452003945308124</v>
+        <v>0.02279812932963909</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5663,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BM27">
-        <v>0.001650127327819994</v>
+        <v>0.0339821069959731</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5687,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>1097</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5695,7 +5713,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0004264309286582908</v>
+        <v>0.0004170910628009405</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5713,13 +5731,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.02697907766833968</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5737,13 +5755,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1142</v>
+        <v>71</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T28">
-        <v>0.01984563094760576</v>
+        <v>0.0004737326314608127</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5761,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>0.03242645943094648</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5785,13 +5803,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1142</v>
+        <v>71</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL28">
-        <v>0.02317593821014016</v>
+        <v>0.02042788434085334</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5809,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>0.03338956395199943</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5833,13 +5851,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>1142</v>
+        <v>71</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BD28">
-        <v>0.02452003945308124</v>
+        <v>0.02258273552929362</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5857,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BM28">
-        <v>0</v>
+        <v>0.03379101735963211</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5881,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>1142</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5889,7 +5907,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0004257586385086188</v>
+        <v>0.0004158387648341714</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5907,13 +5925,37 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29">
+        <v>0.02667394201139333</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>83</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T29">
-        <v>0.01984563094760576</v>
+        <v>0.0004648100084475834</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5931,13 +5973,37 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC29">
+        <v>0.03205971342418743</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>83</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL29">
-        <v>0.02308226301977128</v>
+        <v>0.02008900075703223</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -5955,13 +6021,37 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU29">
+        <v>0.03301192515141132</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>83</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BD29">
-        <v>0.02442612360000101</v>
+        <v>0.02225964482877541</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -5979,7 +6069,31 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM29">
+        <v>0.03340883808695012</v>
+      </c>
+      <c r="BN29">
+        <v>1</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -5987,7 +6101,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.0004257586385086188</v>
+        <v>0.0004139603178840179</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6005,13 +6119,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30">
+        <v>0.01796734720500062</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1103</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T30">
-        <v>0.01975255205218094</v>
+        <v>0.000461835800776507</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6029,13 +6167,37 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC30">
+        <v>0.01849011117410237</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>527</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL30">
-        <v>0.02298858782940242</v>
+        <v>0.01997603956242519</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6053,13 +6215,37 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU30">
+        <v>0.01903928952965095</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>527</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BD30">
-        <v>0.02433220774692078</v>
+        <v>0.02215194792860268</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6077,7 +6263,31 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM30">
+        <v>0.0192682049977167</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6085,7 +6295,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0004250863483589468</v>
+        <v>0.0004133341689006333</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6103,13 +6313,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31">
+        <v>0.01538392270437842</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>527</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T31">
-        <v>0.01965947315675613</v>
+        <v>0.000461835800776507</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6127,13 +6361,37 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC31">
+        <v>0.00606351673253403</v>
+      </c>
+      <c r="AD31">
+        <v>3</v>
+      </c>
+      <c r="AE31">
+        <v>3</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1103</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL31">
-        <v>0.02280123744866467</v>
+        <v>0.01997603956242519</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6151,13 +6409,37 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU31">
+        <v>0.003958903278676502</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>1103</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BD31">
-        <v>0.02414437604076032</v>
+        <v>0.02215194792860268</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6175,7 +6457,31 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM31">
+        <v>0.003081631680078924</v>
+      </c>
+      <c r="BN31">
+        <v>3</v>
+      </c>
+      <c r="BO31">
+        <v>3</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>1103</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6183,7 +6489,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0004244140582092749</v>
+        <v>0.0004133341689006333</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6201,13 +6507,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32">
+        <v>0.002135949598624443</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1048</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T32">
-        <v>0.01947331536590649</v>
+        <v>0.0004558873854343542</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6225,13 +6555,37 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32">
+        <v>0.002567222047313386</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1048</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL32">
-        <v>0.02261388706792693</v>
+        <v>0.01975011717321113</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6249,13 +6603,37 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU32">
+        <v>0.002643471604116827</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>1048</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BD32">
-        <v>0.02395654433459986</v>
+        <v>0.0219365541282572</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6273,15 +6651,39 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="BL32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM32">
+        <v>0.002675254908773891</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>1048</v>
       </c>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:71">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.000423069477909931</v>
+        <v>0.0004120818709338644</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6299,13 +6701,37 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1132</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T33">
-        <v>0.01928715757505686</v>
+        <v>0.0004529131777632777</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6323,13 +6749,37 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1132</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL33">
-        <v>0.02242653668718919</v>
+        <v>0.01963715597860409</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6347,13 +6797,37 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>1132</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BD33">
-        <v>0.0237687126284394</v>
+        <v>0.02182885722808447</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6371,15 +6845,39 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="BL33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>1132</v>
       </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:71">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0004217248976105871</v>
+        <v>0.0004114557219504798</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6397,13 +6895,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T34">
-        <v>0.01910099978420722</v>
+        <v>0.0004529131777632777</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6421,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL34">
-        <v>0.02223918630645145</v>
+        <v>0.01963715597860409</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -6445,13 +6943,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BD34">
-        <v>0.02358088092227894</v>
+        <v>0.02182885722808447</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -6469,15 +6967,15 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:71">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0004203803173112431</v>
+        <v>0.0004114557219504798</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -6495,13 +6993,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T35">
-        <v>0.01891484199335759</v>
+        <v>0.0004380421394078956</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6519,13 +7017,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL35">
-        <v>0.02214551111608258</v>
+        <v>0.01907235000556891</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -6543,13 +7041,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BC35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BD35">
-        <v>0.02348696506919871</v>
+        <v>0.02129037272722079</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -6567,15 +7065,15 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:71">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0004190357370118993</v>
+        <v>0.0004083249770335573</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -6593,13 +7091,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T36">
-        <v>0.01882176309793277</v>
+        <v>0.0004350679317368192</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -6617,13 +7115,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AL36">
-        <v>0.02214551111608258</v>
+        <v>0.01895938881096187</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -6641,13 +7139,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BD36">
-        <v>0.02348696506919871</v>
+        <v>0.02118267582704806</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -6665,15 +7163,15 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:71">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.0004183634468622273</v>
+        <v>0.0004076988280501728</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6691,13 +7189,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="T37">
-        <v>0.01882176309793277</v>
+        <v>0.000420196893381437</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6715,13 +7213,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL37">
-        <v>0.02186448554497597</v>
+        <v>0.0183945828379267</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -6739,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD37">
-        <v>0.02320521750995803</v>
+        <v>0.02064419132618438</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -6763,15 +7261,15 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:71">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0004183634468622273</v>
+        <v>0.0004045680831332502</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6789,13 +7287,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="T38">
-        <v>0.01854252641165832</v>
+        <v>0.0004083000626971313</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -6813,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL38">
-        <v>0.02102140883165614</v>
+        <v>0.01794273805949855</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -6837,13 +7335,13 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BD38">
-        <v>0.02235997483223596</v>
+        <v>0.02021340372549344</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -6861,15 +7359,15 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:71">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0004163465764132114</v>
+        <v>0.0004020634871997122</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -6887,13 +7385,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="T39">
-        <v>0.01770481635283496</v>
+        <v>0.0004023516473549785</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -6911,19 +7409,19 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AL39">
-        <v>0.02070221707152032</v>
+        <v>0.01771681567028448</v>
       </c>
       <c r="AM39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO39">
         <v>1</v>
@@ -6935,19 +7433,19 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="BD39">
-        <v>0.02075540353073069</v>
+        <v>0.01999800992514797</v>
       </c>
       <c r="BE39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG39">
         <v>1</v>
@@ -6959,15 +7457,15 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:71">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0004102959650661638</v>
+        <v>0.0004008111892329432</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -6985,13 +7483,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="T40">
-        <v>0.01593631733976343</v>
+        <v>0.0003190738325648386</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -7009,13 +7507,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AK40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AL40">
-        <v>0.01924158021464761</v>
+        <v>0.01455390222128748</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -7033,13 +7531,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="BC40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="BD40">
-        <v>0.0205755736237116</v>
+        <v>0.01698249672031137</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -7057,15 +7555,15 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:71">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0003975224522223967</v>
+        <v>0.0003832790176981768</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -7083,19 +7581,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>0.0002060539410639345</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W41">
         <v>1</v>
@@ -7107,19 +7605,19 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>0.01026137682622011</v>
       </c>
       <c r="AM41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO41">
         <v>1</v>
@@ -7131,19 +7629,19 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="BC41" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="BD41">
-        <v>0</v>
+        <v>0.01289001451374742</v>
       </c>
       <c r="BE41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG41">
         <v>1</v>
@@ -7155,7 +7653,105 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>297</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:71">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>0.0003594853563295654</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>98</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T42">
+        <v>0.0001503776070731437</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>285</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>3</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>285</v>
+      </c>
+      <c r="BC42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>3</v>
+      </c>
+      <c r="BF42">
+        <v>3</v>
+      </c>
+      <c r="BG42">
+        <v>1</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
